--- a/code/cleaningPolicies/labels.xlsx
+++ b/code/cleaningPolicies/labels.xlsx
@@ -4,11 +4,42 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="TEMPLATE SHEET" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="megaresistencia.com" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="themcrookedvultures.com" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="icanhascheezburger.com" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="perezitos.com" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="statdx.com" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="jetpack.me" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="integralads.com" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="cell.com" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="amiestreet.com" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="99u.com" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Ahaishopping.com" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="dialogflow.com" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="dynatrace.com" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="facebook.com" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="massprofits.com" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="cedato.com" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="islamtoleran.com" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="rachelrayshow.com" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="insidecrm.com" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="autodesk.eu" sheetId="16" r:id="rId19"/>
+    <sheet state="visible" name="githubstatus.com" sheetId="17" r:id="rId20"/>
+    <sheet state="visible" name="springserve.com" sheetId="18" r:id="rId21"/>
+    <sheet state="visible" name="megaresistencia.com" sheetId="19" r:id="rId22"/>
+    <sheet state="visible" name="themcrookedvultures.com" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="icanhascheezburger.com" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="perezitos.com" sheetId="22" r:id="rId25"/>
+    <sheet state="visible" name="statdx.com" sheetId="23" r:id="rId26"/>
+    <sheet state="visible" name="tradetracker.com" sheetId="24" r:id="rId27"/>
+    <sheet state="visible" name="autodesk.in" sheetId="25" r:id="rId28"/>
+    <sheet state="visible" name="bitsbeta.com" sheetId="26" r:id="rId29"/>
+    <sheet state="visible" name="buzzfudge.com" sheetId="27" r:id="rId30"/>
+    <sheet state="visible" name="fidelity.com" sheetId="28" r:id="rId31"/>
+    <sheet state="visible" name="postimage.io" sheetId="29" r:id="rId32"/>
+    <sheet state="visible" name="quickprivacycheck.com" sheetId="30" r:id="rId33"/>
+    <sheet state="visible" name="puterdolls.com" sheetId="31" r:id="rId34"/>
+    <sheet state="visible" name="sun.com" sheetId="32" r:id="rId35"/>
+    <sheet state="visible" name="telexads.com" sheetId="33" r:id="rId36"/>
+    <sheet state="visible" name="pjeshka.com" sheetId="34" r:id="rId37"/>
+    <sheet state="visible" name="thefusejoplin.com" sheetId="35" r:id="rId38"/>
+    <sheet state="visible" name="signal.co" sheetId="36" r:id="rId39"/>
+    <sheet state="visible" name="telechargervideoyoutube.com" sheetId="37" r:id="rId40"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -16,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="3">
   <si>
     <t>EXCERPT</t>
   </si>
@@ -31,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -39,6 +70,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -56,11 +92,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -75,11 +115,123 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing32.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing33.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing34.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing35.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing36.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing37.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -92,6 +244,18 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -326,6 +490,2817 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="C14" s="1">
+        <v>42.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A22" si="1">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A23" si="1">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A21" si="1">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A35" si="1">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <f t="shared" ref="A24:A61" si="1">A23+1</f>
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="1"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -354,6 +3329,451 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <f t="shared" ref="A15:A37" si="1">A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="1">
@@ -401,10 +3821,10 @@
         <v>4.0</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -412,10 +3832,10 @@
         <v>5.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -434,14 +3854,2402 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
         <v>2.0</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.0</v>
+      </c>
       <c r="D21" s="1"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -471,6 +6279,271 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <f t="shared" ref="A15:A22" si="1">A14+1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
         <v>0.0</v>
       </c>
       <c r="B2" s="1">
@@ -540,10 +6613,10 @@
         <v>6.0</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -551,10 +6624,10 @@
         <v>7.0</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -584,10 +6657,10 @@
         <v>10.0</v>
       </c>
       <c r="B12" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -623,15 +6696,1110 @@
         <v>0.0</v>
       </c>
     </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="16">
       <c r="A16" s="1">
         <v>14.0</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -672,10 +7840,10 @@
         <v>18.0</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -686,28 +7854,6 @@
         <v>0.0</v>
       </c>
       <c r="C21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -892,8 +8038,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>14.0</v>
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A22" si="1">A15+1</f>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -903,8 +8050,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>15.0</v>
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -914,8 +8062,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>16.0</v>
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -925,8 +8074,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>17.0</v>
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.0</v>
@@ -936,8 +8086,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>18.0</v>
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -947,20 +8098,21 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>19.0</v>
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>20.0</v>
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.0</v>
@@ -974,10 +8126,10 @@
         <v>21.0</v>
       </c>
       <c r="B23" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="24">
@@ -985,10 +8137,10 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -996,10 +8148,10 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -1029,10 +8181,10 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C28" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1040,10 +8192,10 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C29" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,10 +8214,54 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C31" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1096,7 +8292,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
@@ -1107,7 +8303,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1">
         <v>0.0</v>
@@ -1118,7 +8314,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1">
         <v>0.0</v>
@@ -1129,7 +8325,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1">
         <v>0.0</v>
@@ -1140,7 +8336,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1">
         <v>0.0</v>
@@ -1151,18 +8347,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
         <v>5.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1">
         <v>0.0</v>
@@ -1173,18 +8369,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -1195,7 +8391,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -1206,7 +8402,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -1217,7 +8413,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -1228,18 +8424,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>13.0</v>
+      <c r="A15" s="2">
+        <f t="shared" ref="A15:A16" si="1">A14+1</f>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -1249,145 +8446,14 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>14.0</v>
+      <c r="A16" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
       </c>
       <c r="C16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>21.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>23.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="C28" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1572,8 +8638,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>14.0</v>
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A22" si="1">A15+1</f>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -1583,8 +8650,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1">
-        <v>15.0</v>
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.0</v>
@@ -1594,8 +8662,9 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1">
-        <v>16.0</v>
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.0</v>
@@ -1605,8 +8674,9 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1">
-        <v>17.0</v>
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.0</v>
@@ -1616,8 +8686,9 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1">
-        <v>18.0</v>
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.0</v>
@@ -1627,8 +8698,9 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1">
-        <v>19.0</v>
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>0.0</v>
@@ -1638,14 +8710,15 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1">
-        <v>20.0</v>
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1664,10 +8737,10 @@
         <v>22.0</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -1675,10 +8748,10 @@
         <v>23.0</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C25" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1697,7 +8770,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C27" s="1">
         <v>0.0</v>
@@ -1725,6 +8798,528 @@
         <v>0.0</v>
       </c>
     </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A22" si="1">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="30">
       <c r="A30" s="1">
         <v>28.0</v>
@@ -1745,6 +9340,1029 @@
       </c>
       <c r="C31" s="1">
         <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A22" si="1">A15+1</f>
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>51.0</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>53.0</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="B56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>61.0</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>63.0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
